--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="157">
   <si>
     <t>STT</t>
   </si>
@@ -297,7 +297,217 @@
     <t>Chập nổ nguồn</t>
   </si>
   <si>
-    <t>Thay cầu chì, diode quá áp</t>
+    <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị không bắn lên Terminal, thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thay IC giao tiếp, khởi tạo lại module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>LE.2.00.---27.200525</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa, chết ic giao tiếp, lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại mạch, thay ic giao tiếp, thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>GSM,LK</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại chức năng trên thiết bị</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LE.1.00.---02.181025</t>
+  </si>
+  <si>
+    <t>Cháy led GSM</t>
+  </si>
+  <si>
+    <t>Thay led GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM/GPS</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Lỗi chân connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị  không nhận sim</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4, 3v3(x2), Module GSM/GPS, nạp lại FW</t>
+  </si>
+  <si>
+    <t>Chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nạp lại FW</t>
+  </si>
+  <si>
+    <t>LK,MCH</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.190820</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại module GSM</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>MCH, NCFW</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhân sim</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180115</t>
+  </si>
+  <si>
+    <t>Lock: 210.245.083.006,16363</t>
+  </si>
+  <si>
+    <t>SE.2.03.---25.111215</t>
+  </si>
+  <si>
+    <t>device.vnetgps.com,15757</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120617</t>
+  </si>
+  <si>
+    <t>Lock: 210.245.094.060,07102</t>
+  </si>
+  <si>
+    <t>Mở khóa set lại ID mới, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>Imei mới: 862846048309309</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ, Thiết bị xuất bán Kim Long, ID mới: 202103290850384</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán GPS Tây Ninh, ID mới: 202103290850308</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán GPS Tây Ninh, ID mới: 202103290850882</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán VietGlobal, ID mới: 202103290850556</t>
+  </si>
+  <si>
+    <t>Thiết bị xuất bán ĐL Nguyễn Cương, ID mới: 202103290850207</t>
+  </si>
+  <si>
+    <t>Nàng cấp khay sim</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, Mở khóa set lại ID mới, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>29/03/2022</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
   </si>
 </sst>
 </file>
@@ -372,7 +582,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -661,6 +877,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,6 +941,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,43 +1288,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1120,58 +1369,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1196,23 +1445,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="56"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,7 +1471,9 @@
       <c r="B6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -1233,20 +1484,40 @@
       <c r="G6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="40"/>
+      <c r="H6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1261,7 +1532,9 @@
       <c r="B7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -1273,19 +1546,37 @@
         <v>62</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1589,9 @@
       <c r="B8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -1310,19 +1603,37 @@
         <v>62</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1335,7 +1646,9 @@
       <c r="B9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -1347,19 +1660,35 @@
         <v>62</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="L9" s="43"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1701,9 @@
       <c r="B10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1383,20 +1714,38 @@
       <c r="G10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L10" s="41"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1758,9 @@
       <c r="B11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -1421,19 +1772,37 @@
         <v>62</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1446,7 +1815,9 @@
       <c r="B12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -1458,19 +1829,35 @@
         <v>62</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1479,37 +1866,51 @@
       <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="58">
         <v>8</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="61">
         <v>868183034756986</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="58"/>
+      <c r="L13" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="58"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="58"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1522,7 +1923,9 @@
       <c r="B14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -1534,19 +1937,37 @@
         <v>62</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1559,68 +1980,102 @@
       <c r="B15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="39">
         <v>868183034617469</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="56" t="s">
+        <v>102</v>
+      </c>
       <c r="G15" s="38" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W15" s="44"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="58">
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="61">
         <v>868183034560263</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
+      <c r="F16" s="60"/>
+      <c r="G16" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="58"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" s="58"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +2088,9 @@
       <c r="B17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" s="38" t="s">
         <v>44</v>
       </c>
@@ -1645,16 +2102,34 @@
         <v>62</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="44"/>
@@ -1668,7 +2143,9 @@
       <c r="B18" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
@@ -1680,16 +2157,32 @@
         <v>62</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -1697,35 +2190,49 @@
       <c r="W18" s="14"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="58">
         <v>14</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="61">
         <v>867857039911115</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="58"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="58"/>
       <c r="T19" s="14"/>
       <c r="U19" s="45" t="s">
         <v>39</v>
@@ -1742,7 +2249,9 @@
       <c r="B20" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D20" s="38" t="s">
         <v>44</v>
       </c>
@@ -1754,24 +2263,45 @@
         <v>62</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="4">
+        <f>+H19</f>
+        <v>0</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1782,7 +2312,9 @@
       <c r="B21" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D21" s="38" t="s">
         <v>44</v>
       </c>
@@ -1794,16 +2326,34 @@
         <v>62</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -1811,7 +2361,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1822,7 +2372,9 @@
       <c r="B22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
@@ -1834,16 +2386,34 @@
         <v>62</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -1851,7 +2421,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1862,7 +2432,9 @@
       <c r="B23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D23" s="38" t="s">
         <v>44</v>
       </c>
@@ -1874,16 +2446,34 @@
         <v>62</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -1897,7 +2487,9 @@
       <c r="B24" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D24" s="38" t="s">
         <v>44</v>
       </c>
@@ -1925,7 +2517,9 @@
         <v>81</v>
       </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
+      <c r="O24" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="P24" s="10" t="s">
         <v>71</v>
       </c>
@@ -1948,7 +2542,9 @@
       <c r="B25" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D25" s="38" t="s">
         <v>44</v>
       </c>
@@ -1976,7 +2572,9 @@
         <v>77</v>
       </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
+      <c r="O25" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="P25" s="10" t="s">
         <v>71</v>
       </c>
@@ -2003,7 +2601,9 @@
       <c r="B26" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D26" s="38" t="s">
         <v>44</v>
       </c>
@@ -2031,7 +2631,9 @@
         <v>81</v>
       </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
+      <c r="O26" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="P26" s="10" t="s">
         <v>71</v>
       </c>
@@ -2059,7 +2661,9 @@
       <c r="B27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D27" s="38" t="s">
         <v>44</v>
       </c>
@@ -2081,9 +2685,13 @@
         <v>63</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
+      <c r="O27" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="P27" s="10" t="s">
         <v>71</v>
       </c>
@@ -2100,7 +2708,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2111,7 +2719,9 @@
       <c r="B28" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D28" s="38" t="s">
         <v>44</v>
       </c>
@@ -2137,7 +2747,9 @@
         <v>38</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
+      <c r="O28" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="P28" s="10" t="s">
         <v>71</v>
       </c>
@@ -2165,7 +2777,9 @@
       <c r="B29" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D29" s="38" t="s">
         <v>44</v>
       </c>
@@ -2186,20 +2800,24 @@
       <c r="K29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M29" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
+      <c r="O29" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="P29" s="10" t="s">
         <v>71</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
@@ -2208,7 +2826,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2219,7 +2837,9 @@
       <c r="B30" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D30" s="38" t="s">
         <v>44</v>
       </c>
@@ -2231,16 +2851,34 @@
         <v>62</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -2280,7 +2918,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2312,7 +2950,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -2408,7 +3046,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2440,7 +3078,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2472,7 +3110,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2825,7 +3463,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -3079,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3112,43 +3750,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3193,58 +3831,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
@@ -3269,23 +3907,23 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="56"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3933,9 @@
       <c r="B6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>67</v>
       </c>
@@ -3307,19 +3947,37 @@
         <v>64</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T6" s="55"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3334,7 +3992,9 @@
       <c r="B7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>67</v>
       </c>
@@ -3346,19 +4006,37 @@
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3371,7 +4049,9 @@
       <c r="B8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
@@ -3383,19 +4063,37 @@
         <v>64</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>127</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>151</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T8" s="55"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3424,7 +4122,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3453,7 +4151,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3482,7 +4180,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3511,7 +4209,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3542,7 +4240,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3571,7 +4269,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +4298,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3629,7 +4327,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3748,7 +4446,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3780,7 +4478,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3812,7 +4510,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4089,7 +4787,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4121,7 +4819,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -4281,7 +4979,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4888,8 +5586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4921,43 +5619,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5002,58 +5700,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="54" t="s">
         <v>1</v>
       </c>
@@ -5078,57 +5776,79 @@
       <c r="I5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="56"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="58">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="61">
         <v>866104024656384</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="H6" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="78"/>
+      <c r="O6" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="58"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5137,148 +5857,228 @@
       <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="58">
         <v>2</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="61">
         <v>861694037969308</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="H7" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="58"/>
       <c r="T7" s="55"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="58">
         <v>3</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="61">
         <v>862631034708882</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="4"/>
+      <c r="H8" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="58"/>
       <c r="T8" s="55"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="58">
         <v>4</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="61">
         <v>864811037260556</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="H9" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="58"/>
+      <c r="O9" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="58"/>
       <c r="T9" s="55"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="58">
         <v>5</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="61">
         <v>863586032895207</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="H10" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="58"/>
+      <c r="O10" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="58"/>
       <c r="T10" s="55"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5291,7 +6091,9 @@
       <c r="B11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>68</v>
       </c>
@@ -5302,20 +6104,40 @@
       <c r="G11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="57">
+        <v>220000</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="55"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5328,7 +6150,9 @@
       <c r="B12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>154</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>68</v>
       </c>
@@ -5340,19 +6164,37 @@
         <v>64</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>132</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="55"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5383,7 +6225,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="55"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5412,7 +6254,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="55"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5441,7 +6283,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5470,7 +6312,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5589,7 +6431,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5621,7 +6463,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5802,7 +6644,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -5962,7 +6804,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -6058,7 +6900,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6122,7 +6964,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6475,7 +7317,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -6762,43 +7604,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6843,58 +7685,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -6919,23 +7761,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="56"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6961,7 +7803,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6992,7 +7834,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7021,7 +7863,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7050,7 +7892,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7079,7 +7921,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7108,7 +7950,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7137,7 +7979,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7168,7 +8010,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7197,7 +8039,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7226,7 +8068,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7255,7 +8097,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="157">
   <si>
     <t>STT</t>
   </si>
@@ -710,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,15 +862,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,7 +895,28 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,27 +938,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1247,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="B6" sqref="B6:S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1288,43 +1279,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1369,58 +1360,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1445,23 +1436,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1508,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1576,7 +1567,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +1624,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1679,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1745,7 +1736,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1802,7 +1793,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1848,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1866,51 +1857,51 @@
       <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="55">
         <v>8</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="58">
         <v>868183034756986</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="60" t="s">
+      <c r="H13" s="63"/>
+      <c r="I13" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="60" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="58" t="s">
+      <c r="N13" s="55"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="64" t="s">
+      <c r="Q13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="58" t="s">
+      <c r="R13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="58"/>
+      <c r="S13" s="55"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1967,7 +1958,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1989,7 +1980,7 @@
       <c r="E15" s="39">
         <v>868183034617469</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="53" t="s">
         <v>102</v>
       </c>
       <c r="G15" s="38" t="s">
@@ -2024,58 +2015,58 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W15" s="44"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="55">
         <v>11</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="58">
         <v>868183034560263</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60" t="s">
+      <c r="F16" s="57"/>
+      <c r="G16" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60" t="s">
+      <c r="L16" s="57"/>
+      <c r="M16" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="58" t="s">
+      <c r="N16" s="55"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="58" t="s">
+      <c r="Q16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="60" t="s">
+      <c r="R16" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="S16" s="58"/>
+      <c r="S16" s="55"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2190,49 +2181,49 @@
       <c r="W18" s="14"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>14</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <v>867857039911115</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60" t="s">
+      <c r="F19" s="57"/>
+      <c r="G19" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58" t="s">
+      <c r="H19" s="55"/>
+      <c r="I19" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58" t="s">
+      <c r="L19" s="55"/>
+      <c r="M19" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="58" t="s">
+      <c r="N19" s="55"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q19" s="58" t="s">
+      <c r="Q19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="58" t="s">
+      <c r="R19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="58"/>
+      <c r="S19" s="55"/>
       <c r="T19" s="14"/>
       <c r="U19" s="45" t="s">
         <v>39</v>
@@ -3689,13 +3680,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3707,6 +3691,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3717,8 +3708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3750,43 +3741,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3831,99 +3822,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3976,14 +3967,14 @@
       <c r="S6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="73" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="55"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4035,12 +4026,12 @@
         <v>23</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="74"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="55"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4092,12 +4083,12 @@
       <c r="S8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="74"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="55"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4121,12 +4112,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="74"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="55"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4150,12 +4141,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="74"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="55"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4179,12 +4170,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="74"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="55"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4208,14 +4199,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="73" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="55"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4239,12 +4230,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="74"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="55"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4268,12 +4259,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="74"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="55"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -4298,11 +4289,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="55"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -4327,11 +4318,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="55"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -4356,9 +4347,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="55"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="55"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -4410,7 +4401,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="54" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -4591,7 +4582,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="54" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -5558,13 +5549,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5576,6 +5560,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5586,8 +5577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5619,43 +5610,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5700,389 +5691,389 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <v>866104024656384</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="60" t="s">
+      <c r="N6" s="62"/>
+      <c r="O6" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="60" t="s">
+      <c r="R6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="58"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="73" t="s">
+      <c r="S6" s="55"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="55"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="55">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="58">
         <v>861694037969308</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60" t="s">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="60" t="s">
+      <c r="N7" s="61"/>
+      <c r="O7" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="74"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="55"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="55">
         <v>3</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="58">
         <v>862631034708882</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="63" t="s">
+      <c r="J8" s="57"/>
+      <c r="K8" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="60" t="s">
+      <c r="N8" s="61"/>
+      <c r="O8" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="60" t="s">
+      <c r="R8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="74"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="55"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
+      <c r="A9" s="55">
         <v>4</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="58">
         <v>864811037260556</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="57"/>
+      <c r="G9" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="60" t="s">
+      <c r="N9" s="55"/>
+      <c r="O9" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="58"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="74"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="55"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="55">
         <v>5</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="58">
         <v>863586032895207</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="57"/>
+      <c r="G10" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="58" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M10" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="60" t="s">
+      <c r="N10" s="55"/>
+      <c r="O10" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="64" t="s">
+      <c r="Q10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="60" t="s">
+      <c r="R10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="58"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="74"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="55"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -6120,7 +6111,7 @@
       <c r="M11" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="54">
         <v>220000</v>
       </c>
       <c r="O11" s="40" t="s">
@@ -6136,12 +6127,12 @@
         <v>35</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="74"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="55"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -6193,14 +6184,14 @@
         <v>132</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="73" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="55"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -6224,12 +6215,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="74"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="55"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -6253,12 +6244,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="74"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="55"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -6283,11 +6274,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="55"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -6312,11 +6303,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="55"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -6341,9 +6332,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="55"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="55"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -6395,7 +6386,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="54" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -6576,7 +6567,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="54" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -7543,13 +7534,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7561,6 +7545,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7571,8 +7562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7604,43 +7595,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7685,58 +7676,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7761,49 +7752,79 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="B6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034517214</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>107</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7815,26 +7836,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183035885164</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="I7" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7844,26 +7893,54 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183034782883</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="65"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7873,26 +7950,52 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183034550090</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="65"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7902,26 +8005,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183035901011</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="G10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="65"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7931,26 +8062,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>860157040196500</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="65"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7960,26 +8119,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183034525423</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>116</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="64" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7991,26 +8176,48 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="4"/>
+      <c r="B13" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="58">
+        <v>868183034756986</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="55"/>
+      <c r="L13" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="55"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="55"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="65"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8020,26 +8227,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183034535786</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="I14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="65"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8049,26 +8284,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="B15" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39">
+        <v>868183034617469</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="M15" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8078,26 +8341,48 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="B16" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="58">
+        <v>868183034560263</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" s="55"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="66"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8107,23 +8392,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868183033820833</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="O17" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
       <c r="U17" s="44"/>
@@ -8134,23 +8447,49 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="39">
+        <v>868183035909055</v>
+      </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
+      <c r="O18" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
@@ -8161,24 +8500,46 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
+      <c r="B19" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="58">
+        <v>867857039911115</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="55"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="55"/>
       <c r="T19" s="14"/>
       <c r="U19" s="45" t="s">
         <v>39</v>
@@ -8192,31 +8553,62 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="39">
+        <v>868183035908321</v>
+      </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="4">
+        <f>+H19</f>
+        <v>0</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -8224,23 +8616,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868183034686035</v>
+      </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="O21" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -8248,7 +8668,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -8256,23 +8676,51 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868183034629316</v>
+      </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="O22" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -8280,7 +8728,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -8288,23 +8736,51 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="39">
+        <v>868183033799284</v>
+      </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="O23" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -8315,23 +8791,51 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868183033824017</v>
+      </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="I24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="O24" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -8342,23 +8846,51 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="39">
+        <v>868183037872582</v>
+      </c>
       <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="I25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="O25" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
       <c r="U25" s="45" t="s">
@@ -8373,23 +8905,51 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="39">
+        <v>868183033820213</v>
+      </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="I26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="O26" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -8405,23 +8965,49 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="39">
+        <v>867857039904664</v>
+      </c>
       <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="10"/>
+      <c r="O27" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="14"/>
       <c r="U27" s="4" t="s">
@@ -8429,7 +9015,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -8437,23 +9023,49 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="39">
+        <v>868183033831707</v>
+      </c>
       <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="G28" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="K28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="10"/>
+      <c r="O28" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="S28" s="4"/>
       <c r="T28" s="14"/>
       <c r="U28" s="4" t="s">
@@ -8469,23 +9081,51 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="39">
+        <v>868183034711312</v>
+      </c>
       <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="I29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="10"/>
+      <c r="O29" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="S29" s="4"/>
       <c r="T29" s="14"/>
       <c r="U29" s="4" t="s">
@@ -8493,7 +9133,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -8501,23 +9141,51 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="39">
+        <v>868183035941926</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="10"/>
+      <c r="O30" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="14"/>
       <c r="U30" s="4" t="s">
@@ -8533,31 +9201,59 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4"/>
+      <c r="B31" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="39">
+        <v>864811036970494</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="42"/>
+      <c r="O31" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T31" s="14"/>
       <c r="U31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -8565,23 +9261,51 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="10"/>
+      <c r="B32" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="39">
+        <v>864811037219727</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="43">
+        <v>0</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S32" s="4"/>
       <c r="T32" s="14"/>
       <c r="U32" s="4" t="s">
@@ -8589,7 +9313,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -8597,24 +9321,52 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="4"/>
+      <c r="B33" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="39">
+        <v>863586032909792</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T33" s="14"/>
       <c r="U33" s="4" t="s">
         <v>47</v>
@@ -8629,24 +9381,54 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="4"/>
+      <c r="B34" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="58">
+        <v>866104024656384</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="L34" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M34" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="N34" s="62"/>
+      <c r="O34" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="55"/>
       <c r="T34" s="14"/>
       <c r="U34" s="4" t="s">
         <v>48</v>
@@ -8661,31 +9443,59 @@
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="4"/>
+      <c r="B35" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="58">
+        <v>861694037969308</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N35" s="61"/>
+      <c r="O35" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P35" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="55"/>
       <c r="T35" s="14"/>
       <c r="U35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -8693,31 +9503,59 @@
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="4"/>
+      <c r="B36" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="58">
+        <v>862631034708882</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="L36" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N36" s="61"/>
+      <c r="O36" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P36" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="55"/>
       <c r="T36" s="14"/>
       <c r="U36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -8725,31 +9563,59 @@
       <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="4"/>
+      <c r="B37" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="58">
+        <v>864811037260556</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N37" s="55"/>
+      <c r="O37" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P37" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="55"/>
       <c r="T37" s="14"/>
       <c r="U37" s="18" t="s">
         <v>33</v>
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8757,24 +9623,52 @@
       <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="4"/>
+      <c r="B38" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="58">
+        <v>863586032895207</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="57"/>
+      <c r="K38" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N38" s="55"/>
+      <c r="O38" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P38" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R38" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" s="55"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="16"/>
@@ -8784,23 +9678,53 @@
       <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="10"/>
+      <c r="B39" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="39">
+        <v>862631037446548</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" s="54">
+        <v>220000</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S39" s="4"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
@@ -8811,23 +9735,51 @@
       <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="B40" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="39">
+        <v>862631034733211</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="10"/>
+      <c r="O40" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>132</v>
+      </c>
       <c r="S40" s="4"/>
       <c r="T40" s="14"/>
       <c r="U40" s="18" t="s">
@@ -9102,7 +10054,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -9328,13 +10280,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9346,6 +10291,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_NgocKimAnh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="160">
   <si>
     <t>STT</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>Imei: 868183033791323</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033790945</t>
+  </si>
+  <si>
+    <t>Lạp lại FW cho module GSM/GPS</t>
   </si>
 </sst>
 </file>
@@ -901,22 +910,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,6 +932,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S30"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1279,43 +1288,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1360,58 +1369,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1436,23 +1445,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1517,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1567,7 +1576,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1633,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1688,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1736,7 +1745,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1793,7 +1802,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1848,7 +1857,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1874,7 +1883,9 @@
       <c r="G13" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="63"/>
+      <c r="H13" s="63" t="s">
+        <v>158</v>
+      </c>
       <c r="I13" s="57" t="s">
         <v>84</v>
       </c>
@@ -1889,7 +1900,9 @@
         <v>117</v>
       </c>
       <c r="N13" s="55"/>
-      <c r="O13" s="57"/>
+      <c r="O13" s="57" t="s">
+        <v>153</v>
+      </c>
       <c r="P13" s="55" t="s">
         <v>71</v>
       </c>
@@ -1901,7 +1914,7 @@
       </c>
       <c r="S13" s="55"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1958,7 +1971,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2015,7 +2028,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2039,7 +2052,9 @@
       <c r="G16" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="55"/>
+      <c r="H16" s="55" t="s">
+        <v>157</v>
+      </c>
       <c r="I16" s="55" t="s">
         <v>84</v>
       </c>
@@ -2054,7 +2069,9 @@
         <v>98</v>
       </c>
       <c r="N16" s="55"/>
-      <c r="O16" s="57"/>
+      <c r="O16" s="57" t="s">
+        <v>153</v>
+      </c>
       <c r="P16" s="55" t="s">
         <v>71</v>
       </c>
@@ -2066,7 +2083,7 @@
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2210,18 +2227,20 @@
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="N19" s="55"/>
-      <c r="O19" s="57"/>
+      <c r="O19" s="57" t="s">
+        <v>153</v>
+      </c>
       <c r="P19" s="55" t="s">
         <v>71</v>
       </c>
       <c r="Q19" s="55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="14"/>
@@ -2292,7 +2311,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2352,7 +2371,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2699,7 +2718,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -2941,7 +2960,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -3680,6 +3699,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3691,13 +3717,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3741,43 +3760,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3822,58 +3841,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
@@ -3898,23 +3917,23 @@
       <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,7 +3987,7 @@
         <v>126</v>
       </c>
       <c r="T6" s="52"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4027,7 +4046,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4084,7 +4103,7 @@
         <v>126</v>
       </c>
       <c r="T8" s="52"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4113,7 +4132,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4142,7 +4161,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4171,7 +4190,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4200,7 +4219,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4231,7 +4250,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4260,7 +4279,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4289,7 +4308,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4318,7 +4337,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5549,6 +5568,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5560,13 +5586,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5610,43 +5629,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5691,58 +5710,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
@@ -5767,23 +5786,23 @@
       <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5858,7 @@
       </c>
       <c r="S6" s="55"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5898,7 +5917,7 @@
       </c>
       <c r="S7" s="55"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5955,7 +5974,7 @@
       </c>
       <c r="S8" s="55"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6012,7 +6031,7 @@
       </c>
       <c r="S9" s="55"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6069,7 +6088,7 @@
       </c>
       <c r="S10" s="55"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6128,7 +6147,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6185,7 +6204,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6216,7 +6235,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6245,7 +6264,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6274,7 +6293,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6303,7 +6322,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7534,6 +7553,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7545,13 +7571,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7562,7 +7581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
@@ -7595,43 +7614,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -7676,58 +7695,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -7752,23 +7771,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,7 +7843,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7883,7 +7902,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="65"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7940,7 +7959,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7995,7 +8014,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="65"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8052,7 +8071,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8109,7 +8128,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="65"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8164,7 +8183,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="64" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8217,7 +8236,7 @@
       </c>
       <c r="S13" s="55"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="65"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8274,7 +8293,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8331,7 +8350,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8382,7 +8401,7 @@
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="66"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10280,6 +10299,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10291,13 +10317,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
